--- a/VersionRecords/Version 58join/定时器/新增定时器 (马丁组).xlsx
+++ b/VersionRecords/Version 58join/定时器/新增定时器 (马丁组).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>定时器大类</t>
   </si>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>定时每天任务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>mogoroom-tasktracker</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -93,10 +89,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>计算房源图片等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>安栋</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -105,20 +97,40 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>根据图片像素计算图片等级，并记录到数据库</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.FlatRoomPictureTask</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.FlatRoomPictureTask"}</t>
+    <t>不尝试重复执行，如有错，需开发修复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源推广</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JointRoomTask</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据房东推广申请，获取需推广的房源，并推广到对接网站</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.JointRoomTask</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.JointRoomTask"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时每周任务</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>每日03</t>
+      <t>每周一01</t>
     </r>
     <r>
       <rPr>
@@ -130,14 +142,6 @@
       </rPr>
       <t>:00:00执行</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不尝试重复执行，如有错，需开发修复</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1.0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -737,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -820,25 +824,25 @@
     </row>
     <row r="2" spans="1:18" s="13" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="A2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="16" t="s">
@@ -848,28 +852,28 @@
         <v>18</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/VersionRecords/Version 58join/定时器/新增定时器 (马丁组).xlsx
+++ b/VersionRecords/Version 58join/定时器/新增定时器 (马丁组).xlsx
@@ -85,10 +85,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>FlatRoomPictureTask</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>安栋</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -142,6 +138,10 @@
       </rPr>
       <t>:00:00执行</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JointRoomTask</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -742,7 +742,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -827,22 +827,22 @@
         <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="16" t="s">
@@ -852,28 +852,28 @@
         <v>18</v>
       </c>
       <c r="K2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="O2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="P2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="21" t="s">
-        <v>32</v>
-      </c>
       <c r="Q2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/VersionRecords/Version 58join/定时器/新增定时器 (马丁组).xlsx
+++ b/VersionRecords/Version 58join/定时器/新增定时器 (马丁组).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>定时器大类</t>
   </si>
@@ -142,6 +142,34 @@
   </si>
   <si>
     <t>JointRoomTask</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JointRoomTriggerTask</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广信息更新</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源信息变更后，将变更后的信息同步到对接网站</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.JointRoomTriggerTask</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.JointRoomTriggerTask"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时每小时任务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周一中午12:00:00到周日下午18:00:00期间，每隔1小时执行一次（周日晚18点后~周一上午12点前不执行）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -296,7 +324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -365,6 +393,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -739,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -854,7 +891,7 @@
       <c r="K2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="18" t="s">
@@ -873,6 +910,59 @@
         <v>23</v>
       </c>
       <c r="R2" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="55.5" customHeight="1">
+      <c r="A3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="17" t="s">
         <v>24</v>
       </c>
     </row>
